--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1262208.365140347</v>
+        <v>1326134.916328292</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18157355.41581893</v>
+        <v>16722200.63474371</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2113478.654365224</v>
+        <v>967451.7036114029</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6280687.128156351</v>
+        <v>6657395.462065124</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +661,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>313.4700170156991</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -713,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>45.10878876340928</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>131.9969996527466</v>
       </c>
       <c r="U4" t="n">
-        <v>153.2006427344293</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -893,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>158.3756233635</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>306.6068084754911</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1063,13 +1065,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>90.30617524481291</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>35.20092700998688</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>158.3756233635</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -1145,13 +1147,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>51.02685178887987</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1297,13 +1299,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>113.5770391806069</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>119.8634463900536</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1339,7 +1341,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1367,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>241.9355430025903</v>
       </c>
       <c r="G11" t="n">
-        <v>148.5044694271802</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1619,10 +1621,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>99.92737017624191</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>394.724966965334</v>
       </c>
     </row>
     <row r="15">
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1859,7 +1861,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2141,7 +2143,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.8069000430781</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -2245,13 +2247,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>119.8634463900534</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -2287,7 +2289,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2302,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>13.51446909089648</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>240.273786227905</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2725,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2950,25 +2952,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>35.75633396116267</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>90.30617524481251</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3196,16 +3198,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>14.14416275345333</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,10 +3243,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3326,7 +3328,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.8069000430781</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
@@ -3427,7 +3429,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>3.423392126088182</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3439,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308167807</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -3481,7 +3483,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>5.990622819018522</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3521,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3560,7 +3562,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655127</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -3709,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>122.9742767430608</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3752,13 +3754,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>292.0979716451867</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>24.1717549318489</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3946,16 +3948,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830417</v>
       </c>
       <c r="U43" t="n">
-        <v>172.6623007436918</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3986,16 +3988,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>38.92466654850723</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>117.4945558997554</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4150,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4198,7 +4200,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>13.51446909089648</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>456.8118216935309</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C2" t="n">
-        <v>140.1754408695924</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D2" t="n">
-        <v>108.3060600844409</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E2" t="n">
-        <v>78.57171928314017</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N2" t="n">
-        <v>666.6506660403358</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O2" t="n">
-        <v>1344.116250983141</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P2" t="n">
-        <v>2021.581835925947</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2568.080621884541</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.012383954615</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V2" t="n">
-        <v>2115.395433888441</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W2" t="n">
-        <v>1710.539979299475</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X2" t="n">
-        <v>1291.397515878785</v>
+        <v>2623.681342788512</v>
       </c>
       <c r="Y2" t="n">
-        <v>883.1113921784387</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>560.9164387240447</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>454.459977560687</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>359.3696887072403</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>265.249274034194</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>181.8654356503556</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>96.48034591653948</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J3" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K3" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L3" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M3" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N3" t="n">
-        <v>382.60715354234</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O3" t="n">
-        <v>1060.072738485145</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P3" t="n">
-        <v>1060.072738485145</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1600.811677117221</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>1654.529017659944</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>1524.350373990545</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>1348.013826990514</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>1148.896309052513</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>963.5735547857071</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>808.7061190245871</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>682.2203398038079</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1133.802854344633</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>961.2411428278582</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>795.3631500293809</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>625.6051462801182</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>448.8980922418745</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>283.3068172677021</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>143.4046429580766</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>141.3243788974418</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>416.0828334685774</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>834.2927152365385</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>1293.776582417452</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1736.035385575096</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>2155.704634800878</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>2503.211528771219</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2671.404303635552</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2512.162934933549</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2512.162934933549</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="U4" t="n">
-        <v>2357.414810959378</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V4" t="n">
-        <v>2070.459302829808</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W4" t="n">
-        <v>1798.4328984161</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X4" t="n">
-        <v>1553.041143749512</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y4" t="n">
-        <v>1325.62147306362</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1790.439125807381</v>
+        <v>448.5358106104095</v>
       </c>
       <c r="C5" t="n">
-        <v>1352.296652990805</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3868681652491</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E5" t="n">
-        <v>482.6121233235442</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>54.74469373275195</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="L5" t="n">
-        <v>54.74469373275195</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M5" t="n">
-        <v>54.74469373275195</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="N5" t="n">
-        <v>666.6506660403358</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="O5" t="n">
-        <v>1344.116250983141</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.581835925947</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.080621884541</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2737.234686637598</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2737.234686637598</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>2737.234686637598</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>2374.617736571424</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W5" t="n">
-        <v>2373.802686022862</v>
+        <v>1702.263968216353</v>
       </c>
       <c r="X5" t="n">
-        <v>2358.700626642576</v>
+        <v>1283.121504795664</v>
       </c>
       <c r="Y5" t="n">
-        <v>1950.41450294223</v>
+        <v>874.8353810953173</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>560.9164387240447</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>454.459977560687</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>359.3696887072403</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>265.249274034194</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>181.8654356503556</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>96.48034591653948</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J6" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K6" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L6" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M6" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N6" t="n">
-        <v>382.60715354234</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O6" t="n">
-        <v>1060.072738485145</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P6" t="n">
-        <v>1060.072738485145</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1600.811677117221</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1654.529017659944</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1524.350373990545</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1348.013826990514</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1148.896309052513</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>963.5735547857071</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>808.7061190245871</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>682.2203398038079</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1133.802854344633</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>961.2411428278582</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>795.3631500293809</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E7" t="n">
-        <v>625.6051462801182</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F7" t="n">
-        <v>448.8980922418745</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="G7" t="n">
-        <v>283.3068172677021</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="H7" t="n">
-        <v>143.4046429580766</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>141.3243788974418</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>416.0828334685774</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>834.2927152365385</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>1293.776582417452</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1736.035385575096</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>2155.704634800878</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>2503.211528771219</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2671.404303635552</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2671.404303635552</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>2635.847811706272</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>2357.414810959378</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>2070.459302829808</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1798.4328984161</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1553.041143749512</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>1325.62147306362</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1790.439125807381</v>
+        <v>2511.062984811828</v>
       </c>
       <c r="C8" t="n">
-        <v>1352.296652990805</v>
+        <v>2072.920511995252</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3868681652491</v>
+        <v>1637.010727169696</v>
       </c>
       <c r="E8" t="n">
-        <v>482.6121233235442</v>
+        <v>1203.235982327991</v>
       </c>
       <c r="F8" t="n">
-        <v>54.74469373275195</v>
+        <v>775.368552737199</v>
       </c>
       <c r="G8" t="n">
-        <v>54.74469373275195</v>
+        <v>373.970721360463</v>
       </c>
       <c r="H8" t="n">
-        <v>54.74469373275195</v>
+        <v>84.84056680367921</v>
       </c>
       <c r="I8" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J8" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="K8" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="L8" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="M8" t="n">
-        <v>158.3391458505872</v>
+        <v>652.3022337192184</v>
       </c>
       <c r="N8" t="n">
-        <v>835.8047307933927</v>
+        <v>1697.046479425606</v>
       </c>
       <c r="O8" t="n">
-        <v>1513.270315736198</v>
+        <v>2677.226145995912</v>
       </c>
       <c r="P8" t="n">
-        <v>2190.735900679003</v>
+        <v>3505.536020829309</v>
       </c>
       <c r="Q8" t="n">
-        <v>2737.234686637598</v>
+        <v>4052.034806787904</v>
       </c>
       <c r="R8" t="n">
-        <v>2737.234686637598</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="S8" t="n">
-        <v>2737.234686637598</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="T8" t="n">
-        <v>2737.234686637598</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="U8" t="n">
-        <v>2737.234686637598</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="V8" t="n">
-        <v>2374.617736571424</v>
+        <v>4169.646597006738</v>
       </c>
       <c r="W8" t="n">
-        <v>1969.762281982458</v>
+        <v>3764.791142417772</v>
       </c>
       <c r="X8" t="n">
-        <v>1954.660222602172</v>
+        <v>3345.648678997083</v>
       </c>
       <c r="Y8" t="n">
-        <v>1950.41450294223</v>
+        <v>2937.362555296736</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>560.9164387240447</v>
+        <v>590.595522422112</v>
       </c>
       <c r="C9" t="n">
-        <v>454.459977560687</v>
+        <v>484.1390612587543</v>
       </c>
       <c r="D9" t="n">
-        <v>359.3696887072403</v>
+        <v>389.0487724053075</v>
       </c>
       <c r="E9" t="n">
-        <v>265.249274034194</v>
+        <v>294.9283577322612</v>
       </c>
       <c r="F9" t="n">
-        <v>181.8654356503556</v>
+        <v>211.5445193484229</v>
       </c>
       <c r="G9" t="n">
-        <v>96.48034591653948</v>
+        <v>126.1594296146068</v>
       </c>
       <c r="H9" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I9" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J9" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="K9" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="L9" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="M9" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="N9" t="n">
-        <v>732.2102786755574</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="O9" t="n">
-        <v>1409.675863618363</v>
+        <v>1098.225387249121</v>
       </c>
       <c r="P9" t="n">
-        <v>1409.675863618363</v>
+        <v>1630.490760815288</v>
       </c>
       <c r="Q9" t="n">
-        <v>1717.984455211561</v>
+        <v>1630.490760815288</v>
       </c>
       <c r="R9" t="n">
-        <v>1717.984455211561</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="S9" t="n">
-        <v>1654.529017659944</v>
+        <v>1684.208101358011</v>
       </c>
       <c r="T9" t="n">
-        <v>1524.350373990545</v>
+        <v>1554.029457688613</v>
       </c>
       <c r="U9" t="n">
-        <v>1348.013826990514</v>
+        <v>1377.692910688581</v>
       </c>
       <c r="V9" t="n">
-        <v>1148.896309052513</v>
+        <v>1178.57539275058</v>
       </c>
       <c r="W9" t="n">
-        <v>963.5735547857071</v>
+        <v>993.2526384837745</v>
       </c>
       <c r="X9" t="n">
-        <v>808.7061190245871</v>
+        <v>838.3852027226544</v>
       </c>
       <c r="Y9" t="n">
-        <v>682.2203398038079</v>
+        <v>711.8994235018752</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>902.0620785577398</v>
+        <v>772.4997935538031</v>
       </c>
       <c r="C10" t="n">
-        <v>729.5003670409648</v>
+        <v>599.938082037028</v>
       </c>
       <c r="D10" t="n">
-        <v>563.6223742424875</v>
+        <v>434.0600892385507</v>
       </c>
       <c r="E10" t="n">
-        <v>448.8980922418745</v>
+        <v>434.0600892385507</v>
       </c>
       <c r="F10" t="n">
-        <v>448.8980922418745</v>
+        <v>434.0600892385507</v>
       </c>
       <c r="G10" t="n">
-        <v>283.3068172677021</v>
+        <v>312.9859009657694</v>
       </c>
       <c r="H10" t="n">
-        <v>143.4046429580766</v>
+        <v>173.0837266561439</v>
       </c>
       <c r="I10" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J10" t="n">
-        <v>141.3243788974418</v>
+        <v>171.0034625955091</v>
       </c>
       <c r="K10" t="n">
-        <v>416.0828334685774</v>
+        <v>445.7619171666447</v>
       </c>
       <c r="L10" t="n">
-        <v>834.2927152365385</v>
+        <v>863.9717989346057</v>
       </c>
       <c r="M10" t="n">
-        <v>1293.776582417452</v>
+        <v>1323.455666115519</v>
       </c>
       <c r="N10" t="n">
-        <v>1736.035385575096</v>
+        <v>1765.714469273163</v>
       </c>
       <c r="O10" t="n">
-        <v>2155.704634800878</v>
+        <v>2185.383718498945</v>
       </c>
       <c r="P10" t="n">
-        <v>2503.211528771219</v>
+        <v>2532.890612469287</v>
       </c>
       <c r="Q10" t="n">
-        <v>2671.404303635552</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="R10" t="n">
-        <v>2649.986482340924</v>
+        <v>2679.665566038991</v>
       </c>
       <c r="S10" t="n">
-        <v>2649.986482340924</v>
+        <v>2520.424197336987</v>
       </c>
       <c r="T10" t="n">
-        <v>2404.107035919379</v>
+        <v>2274.544750915442</v>
       </c>
       <c r="U10" t="n">
-        <v>2125.674035172484</v>
+        <v>1996.111750168548</v>
       </c>
       <c r="V10" t="n">
-        <v>1838.718527042915</v>
+        <v>1709.156242038978</v>
       </c>
       <c r="W10" t="n">
-        <v>1566.692122629206</v>
+        <v>1437.12983762527</v>
       </c>
       <c r="X10" t="n">
-        <v>1321.300367962619</v>
+        <v>1191.738082958682</v>
       </c>
       <c r="Y10" t="n">
-        <v>1093.880697276727</v>
+        <v>964.3184122727903</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1504.950644927595</v>
+        <v>1637.046905653769</v>
       </c>
       <c r="C11" t="n">
-        <v>1066.808172111018</v>
+        <v>1198.904432837192</v>
       </c>
       <c r="D11" t="n">
-        <v>1066.808172111018</v>
+        <v>762.9946480116369</v>
       </c>
       <c r="E11" t="n">
-        <v>633.0334272693135</v>
+        <v>329.219903169932</v>
       </c>
       <c r="F11" t="n">
-        <v>205.1659976785213</v>
+        <v>84.84056680367921</v>
       </c>
       <c r="G11" t="n">
-        <v>55.16148310561195</v>
+        <v>84.84056680367921</v>
       </c>
       <c r="H11" t="n">
-        <v>55.16148310561195</v>
+        <v>84.84056680367921</v>
       </c>
       <c r="I11" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J11" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="K11" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="L11" t="n">
-        <v>54.74469373275195</v>
+        <v>652.3022337192184</v>
       </c>
       <c r="M11" t="n">
-        <v>54.74469373275195</v>
+        <v>1697.046479425606</v>
       </c>
       <c r="N11" t="n">
-        <v>732.2102786755574</v>
+        <v>1697.046479425606</v>
       </c>
       <c r="O11" t="n">
-        <v>1409.675863618363</v>
+        <v>2677.226145995912</v>
       </c>
       <c r="P11" t="n">
-        <v>2021.581835925947</v>
+        <v>3505.536020829309</v>
       </c>
       <c r="Q11" t="n">
-        <v>2568.080621884541</v>
+        <v>4052.034806787904</v>
       </c>
       <c r="R11" t="n">
-        <v>2737.234686637598</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="S11" t="n">
-        <v>2737.234686637598</v>
+        <v>4137.536997724797</v>
       </c>
       <c r="T11" t="n">
-        <v>2737.234686637598</v>
+        <v>3917.469770597836</v>
       </c>
       <c r="U11" t="n">
-        <v>2737.234686637598</v>
+        <v>3658.247467914853</v>
       </c>
       <c r="V11" t="n">
-        <v>2737.234686637598</v>
+        <v>3295.630517848679</v>
       </c>
       <c r="W11" t="n">
-        <v>2332.379232048631</v>
+        <v>2890.775063259713</v>
       </c>
       <c r="X11" t="n">
-        <v>1913.236768627942</v>
+        <v>2471.632599839023</v>
       </c>
       <c r="Y11" t="n">
-        <v>1504.950644927595</v>
+        <v>2063.346476138677</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>560.9164387240447</v>
+        <v>590.595522422112</v>
       </c>
       <c r="C12" t="n">
-        <v>454.459977560687</v>
+        <v>484.1390612587543</v>
       </c>
       <c r="D12" t="n">
-        <v>359.3696887072403</v>
+        <v>389.0487724053075</v>
       </c>
       <c r="E12" t="n">
-        <v>265.249274034194</v>
+        <v>294.9283577322612</v>
       </c>
       <c r="F12" t="n">
-        <v>181.8654356503556</v>
+        <v>211.5445193484229</v>
       </c>
       <c r="G12" t="n">
-        <v>96.48034591653948</v>
+        <v>126.1594296146068</v>
       </c>
       <c r="H12" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I12" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J12" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="K12" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="L12" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="M12" t="n">
-        <v>732.2102786755574</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="N12" t="n">
-        <v>1177.245516579485</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="O12" t="n">
-        <v>1177.245516579485</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="P12" t="n">
-        <v>1177.245516579485</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="Q12" t="n">
-        <v>1717.984455211561</v>
+        <v>1630.490760815288</v>
       </c>
       <c r="R12" t="n">
-        <v>1717.984455211561</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="S12" t="n">
-        <v>1654.529017659944</v>
+        <v>1684.208101358011</v>
       </c>
       <c r="T12" t="n">
-        <v>1524.350373990545</v>
+        <v>1554.029457688613</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.013826990514</v>
+        <v>1377.692910688581</v>
       </c>
       <c r="V12" t="n">
-        <v>1148.896309052513</v>
+        <v>1178.57539275058</v>
       </c>
       <c r="W12" t="n">
-        <v>963.5735547857071</v>
+        <v>993.2526384837745</v>
       </c>
       <c r="X12" t="n">
-        <v>808.7061190245871</v>
+        <v>838.3852027226544</v>
       </c>
       <c r="Y12" t="n">
-        <v>682.2203398038079</v>
+        <v>711.8994235018752</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>905.2407308096831</v>
+        <v>934.9198145077505</v>
       </c>
       <c r="C13" t="n">
-        <v>732.679019292908</v>
+        <v>762.3581029909755</v>
       </c>
       <c r="D13" t="n">
-        <v>566.8010264944307</v>
+        <v>596.4801101924982</v>
       </c>
       <c r="E13" t="n">
-        <v>397.0430227451681</v>
+        <v>426.7221064432354</v>
       </c>
       <c r="F13" t="n">
-        <v>220.3359687069243</v>
+        <v>250.0150524049915</v>
       </c>
       <c r="G13" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="H13" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I13" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J13" t="n">
-        <v>141.3243788974418</v>
+        <v>171.0034625955091</v>
       </c>
       <c r="K13" t="n">
-        <v>416.0828334685774</v>
+        <v>445.7619171666447</v>
       </c>
       <c r="L13" t="n">
-        <v>834.2927152365385</v>
+        <v>863.9717989346057</v>
       </c>
       <c r="M13" t="n">
-        <v>1293.776582417452</v>
+        <v>1323.455666115519</v>
       </c>
       <c r="N13" t="n">
-        <v>1736.035385575096</v>
+        <v>1765.714469273163</v>
       </c>
       <c r="O13" t="n">
-        <v>2155.704634800878</v>
+        <v>2185.383718498945</v>
       </c>
       <c r="P13" t="n">
-        <v>2503.211528771219</v>
+        <v>2532.890612469287</v>
       </c>
       <c r="Q13" t="n">
-        <v>2671.404303635552</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="R13" t="n">
-        <v>2671.404303635552</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="S13" t="n">
-        <v>2653.165134592867</v>
+        <v>2682.844218290934</v>
       </c>
       <c r="T13" t="n">
-        <v>2407.285688171322</v>
+        <v>2436.96477186939</v>
       </c>
       <c r="U13" t="n">
-        <v>2128.852687424428</v>
+        <v>2158.531771122495</v>
       </c>
       <c r="V13" t="n">
-        <v>1841.897179294858</v>
+        <v>1871.576262992925</v>
       </c>
       <c r="W13" t="n">
-        <v>1569.87077488115</v>
+        <v>1599.549858579217</v>
       </c>
       <c r="X13" t="n">
-        <v>1324.479020214562</v>
+        <v>1354.158103912629</v>
       </c>
       <c r="Y13" t="n">
-        <v>1097.05934952867</v>
+        <v>1126.738433226738</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1790.855915180241</v>
+        <v>2072.920511995252</v>
       </c>
       <c r="C14" t="n">
-        <v>1352.713442363665</v>
+        <v>2072.920511995252</v>
       </c>
       <c r="D14" t="n">
-        <v>916.8036575381091</v>
+        <v>1637.010727169696</v>
       </c>
       <c r="E14" t="n">
-        <v>483.0289126964042</v>
+        <v>1203.235982327991</v>
       </c>
       <c r="F14" t="n">
-        <v>55.16148310561195</v>
+        <v>775.368552737199</v>
       </c>
       <c r="G14" t="n">
-        <v>55.16148310561195</v>
+        <v>373.970721360463</v>
       </c>
       <c r="H14" t="n">
-        <v>55.16148310561195</v>
+        <v>84.84056680367921</v>
       </c>
       <c r="I14" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J14" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="K14" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="L14" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="M14" t="n">
-        <v>732.2102786755574</v>
+        <v>652.3022337192184</v>
       </c>
       <c r="N14" t="n">
-        <v>1409.675863618363</v>
+        <v>1697.046479425606</v>
       </c>
       <c r="O14" t="n">
-        <v>2087.141448561168</v>
+        <v>2677.226145995912</v>
       </c>
       <c r="P14" t="n">
-        <v>2190.735900679003</v>
+        <v>3505.536020829309</v>
       </c>
       <c r="Q14" t="n">
-        <v>2737.234686637598</v>
+        <v>4052.034806787904</v>
       </c>
       <c r="R14" t="n">
-        <v>2737.234686637598</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="S14" t="n">
-        <v>2737.234686637598</v>
+        <v>4137.536997724797</v>
       </c>
       <c r="T14" t="n">
-        <v>2737.234686637598</v>
+        <v>3917.469770597836</v>
       </c>
       <c r="U14" t="n">
-        <v>2737.234686637598</v>
+        <v>3658.247467914853</v>
       </c>
       <c r="V14" t="n">
-        <v>2737.234686637598</v>
+        <v>3295.630517848679</v>
       </c>
       <c r="W14" t="n">
-        <v>2636.297949085838</v>
+        <v>2890.775063259713</v>
       </c>
       <c r="X14" t="n">
-        <v>2217.155485665149</v>
+        <v>2471.632599839023</v>
       </c>
       <c r="Y14" t="n">
-        <v>2217.155485665149</v>
+        <v>2072.920511995252</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>560.9164387240447</v>
+        <v>590.595522422112</v>
       </c>
       <c r="C15" t="n">
-        <v>454.459977560687</v>
+        <v>484.1390612587543</v>
       </c>
       <c r="D15" t="n">
-        <v>359.3696887072403</v>
+        <v>389.0487724053075</v>
       </c>
       <c r="E15" t="n">
-        <v>265.249274034194</v>
+        <v>294.9283577322612</v>
       </c>
       <c r="F15" t="n">
-        <v>181.8654356503556</v>
+        <v>211.5445193484229</v>
       </c>
       <c r="G15" t="n">
-        <v>96.48034591653948</v>
+        <v>126.1594296146068</v>
       </c>
       <c r="H15" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I15" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J15" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="K15" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="L15" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="M15" t="n">
-        <v>245.8805072316101</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="N15" t="n">
-        <v>923.3460921744155</v>
+        <v>270.0286557040146</v>
       </c>
       <c r="O15" t="n">
-        <v>1600.811677117221</v>
+        <v>270.0286557040146</v>
       </c>
       <c r="P15" t="n">
-        <v>1600.811677117221</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="Q15" t="n">
-        <v>1600.811677117221</v>
+        <v>1630.490760815288</v>
       </c>
       <c r="R15" t="n">
-        <v>1717.984455211561</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="S15" t="n">
-        <v>1654.529017659944</v>
+        <v>1684.208101358011</v>
       </c>
       <c r="T15" t="n">
-        <v>1524.350373990545</v>
+        <v>1554.029457688613</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.013826990514</v>
+        <v>1377.692910688581</v>
       </c>
       <c r="V15" t="n">
-        <v>1148.896309052513</v>
+        <v>1178.57539275058</v>
       </c>
       <c r="W15" t="n">
-        <v>963.5735547857071</v>
+        <v>993.2526384837745</v>
       </c>
       <c r="X15" t="n">
-        <v>808.7061190245871</v>
+        <v>838.3852027226544</v>
       </c>
       <c r="Y15" t="n">
-        <v>682.2203398038079</v>
+        <v>711.8994235018752</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>905.2407308096831</v>
+        <v>934.9198145077505</v>
       </c>
       <c r="C16" t="n">
-        <v>732.679019292908</v>
+        <v>762.3581029909755</v>
       </c>
       <c r="D16" t="n">
-        <v>566.8010264944307</v>
+        <v>596.4801101924982</v>
       </c>
       <c r="E16" t="n">
-        <v>397.0430227451681</v>
+        <v>426.7221064432354</v>
       </c>
       <c r="F16" t="n">
-        <v>220.3359687069243</v>
+        <v>250.0150524049915</v>
       </c>
       <c r="G16" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="H16" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I16" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J16" t="n">
-        <v>141.3243788974418</v>
+        <v>171.0034625955091</v>
       </c>
       <c r="K16" t="n">
-        <v>416.0828334685774</v>
+        <v>445.7619171666447</v>
       </c>
       <c r="L16" t="n">
-        <v>834.2927152365385</v>
+        <v>863.9717989346057</v>
       </c>
       <c r="M16" t="n">
-        <v>1293.776582417452</v>
+        <v>1323.455666115519</v>
       </c>
       <c r="N16" t="n">
-        <v>1736.035385575096</v>
+        <v>1765.714469273163</v>
       </c>
       <c r="O16" t="n">
-        <v>2155.704634800878</v>
+        <v>2185.383718498945</v>
       </c>
       <c r="P16" t="n">
-        <v>2503.211528771219</v>
+        <v>2532.890612469287</v>
       </c>
       <c r="Q16" t="n">
-        <v>2671.404303635552</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="R16" t="n">
-        <v>2671.404303635552</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="S16" t="n">
-        <v>2653.165134592867</v>
+        <v>2682.844218290934</v>
       </c>
       <c r="T16" t="n">
-        <v>2407.285688171322</v>
+        <v>2436.96477186939</v>
       </c>
       <c r="U16" t="n">
-        <v>2128.852687424428</v>
+        <v>2158.531771122495</v>
       </c>
       <c r="V16" t="n">
-        <v>1841.897179294858</v>
+        <v>1871.576262992925</v>
       </c>
       <c r="W16" t="n">
-        <v>1569.87077488115</v>
+        <v>1599.549858579217</v>
       </c>
       <c r="X16" t="n">
-        <v>1324.479020214562</v>
+        <v>1354.158103912629</v>
       </c>
       <c r="Y16" t="n">
-        <v>1097.05934952867</v>
+        <v>1126.738433226738</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5516,49 +5518,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>211.240503094076</v>
+        <v>211.2405030940769</v>
       </c>
       <c r="L17" t="n">
-        <v>1286.300469346935</v>
+        <v>1286.300469346936</v>
       </c>
       <c r="M17" t="n">
-        <v>2443.348304557486</v>
+        <v>2443.348304557487</v>
       </c>
       <c r="N17" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5604,10 +5606,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="N18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5777,16 +5779,16 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257732</v>
@@ -5838,13 +5840,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M21" t="n">
-        <v>1300.985674363279</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N21" t="n">
-        <v>1765.500601749588</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P21" t="n">
         <v>1765.500601749588</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>330.8229638057298</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>330.8229638057298</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
         <v>330.8229638057298</v>
@@ -5935,25 +5937,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.96690046523</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>1371.865819681875</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M23" t="n">
-        <v>1463.16863798718</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6026,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C24" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D24" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E24" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F24" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G24" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H24" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>3879.214741978675</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2608402707796</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="O24" t="n">
-        <v>945.7774352703902</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R24" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S24" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T24" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U24" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V24" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W24" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X24" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y24" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="25">
@@ -6169,10 +6171,10 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T25" t="n">
         <v>2454.80183470935</v>
@@ -6212,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6227,25 +6229,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>388.1086717343205</v>
       </c>
       <c r="L26" t="n">
-        <v>1177.320806523639</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M26" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6263,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="27">
@@ -6315,7 +6317,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="N27" t="n">
-        <v>751.6989919312866</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="O27" t="n">
         <v>1765.500601749588</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937634</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C28" t="n">
-        <v>617.7751448769883</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D28" t="n">
-        <v>451.897152078511</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E28" t="n">
-        <v>282.1391483292483</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F28" t="n">
-        <v>105.4320942910045</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6464,25 +6466,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2627364873769</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>1632.322702740236</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M29" t="n">
-        <v>1632.322702740236</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N29" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6500,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="30">
@@ -6552,10 +6554,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O30" t="n">
-        <v>1116.062450089081</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P30" t="n">
         <v>1765.500601749588</v>
@@ -6598,22 +6600,22 @@
         <v>790.3368563937634</v>
       </c>
       <c r="C31" t="n">
-        <v>617.7751448769883</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="D31" t="n">
-        <v>451.897152078511</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E31" t="n">
-        <v>282.1391483292483</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F31" t="n">
-        <v>190.9207894961043</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G31" t="n">
-        <v>190.9207894961043</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6686,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2334.36864173419</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N32" t="n">
-        <v>3460.099625170637</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="O32" t="n">
-        <v>4440.279291740943</v>
+        <v>4584.153287715592</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>4584.153287715592</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6737,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6779,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J33" t="n">
-        <v>210.9600532992111</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K33" t="n">
-        <v>210.9600532992111</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L33" t="n">
-        <v>210.9600532992111</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>210.9600532992111</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N33" t="n">
-        <v>210.9600532992111</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O33" t="n">
-        <v>1224.761663117513</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P33" t="n">
-        <v>1224.761663117513</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q33" t="n">
         <v>1765.500601749588</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C34" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D34" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>282.1391483292483</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6889,19 +6891,19 @@
         <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="35">
@@ -6947,40 +6949,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>3572.656769371182</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>4552.836435941488</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K36" t="n">
-        <v>1133.616358467827</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L36" t="n">
-        <v>1133.616358467827</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M36" t="n">
-        <v>1133.616358467827</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="N36" t="n">
-        <v>1133.616358467827</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O36" t="n">
-        <v>1133.616358467827</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P36" t="n">
-        <v>1133.616358467827</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>790.336856393767</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C37" t="n">
-        <v>617.7751448769919</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878955</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755406</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008511</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878942</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.966900465233</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798646</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1554751127542</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7178,10 +7180,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N38" t="n">
         <v>2588.899621423628</v>
@@ -7208,16 +7210,16 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7260,19 +7262,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M39" t="n">
-        <v>1300.985674363279</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N39" t="n">
-        <v>1765.500601749588</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7336,28 +7338,28 @@
         <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745692</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955482</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113127</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338908</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.72767530925</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173582</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173582</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2594.704009018975</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
         <v>2594.704009018975</v>
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.617736571424</v>
+        <v>2511.062984811828</v>
       </c>
       <c r="C41" t="n">
-        <v>1936.475263754848</v>
+        <v>2072.920511995252</v>
       </c>
       <c r="D41" t="n">
-        <v>1500.565478929292</v>
+        <v>1637.010727169696</v>
       </c>
       <c r="E41" t="n">
-        <v>1066.790734087587</v>
+        <v>1203.235982327991</v>
       </c>
       <c r="F41" t="n">
-        <v>638.923304496795</v>
+        <v>775.368552737199</v>
       </c>
       <c r="G41" t="n">
-        <v>343.8748482895357</v>
+        <v>373.970721360463</v>
       </c>
       <c r="H41" t="n">
-        <v>54.74469373275195</v>
+        <v>84.84056680367921</v>
       </c>
       <c r="I41" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J41" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="K41" t="n">
-        <v>732.2102786755574</v>
+        <v>587.7376545831371</v>
       </c>
       <c r="L41" t="n">
-        <v>1409.675863618363</v>
+        <v>1632.481900289525</v>
       </c>
       <c r="M41" t="n">
-        <v>2087.141448561168</v>
+        <v>1632.481900289525</v>
       </c>
       <c r="N41" t="n">
-        <v>2737.234686637598</v>
+        <v>2677.226145995912</v>
       </c>
       <c r="O41" t="n">
-        <v>2737.234686637598</v>
+        <v>2677.226145995912</v>
       </c>
       <c r="P41" t="n">
-        <v>2737.234686637598</v>
+        <v>3505.536020829309</v>
       </c>
       <c r="Q41" t="n">
-        <v>2737.234686637598</v>
+        <v>4052.034806787904</v>
       </c>
       <c r="R41" t="n">
-        <v>2737.234686637598</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="S41" t="n">
-        <v>2737.234686637598</v>
+        <v>4137.536997724797</v>
       </c>
       <c r="T41" t="n">
-        <v>2737.234686637598</v>
+        <v>4137.536997724797</v>
       </c>
       <c r="U41" t="n">
-        <v>2737.234686637598</v>
+        <v>4137.536997724797</v>
       </c>
       <c r="V41" t="n">
-        <v>2374.617736571424</v>
+        <v>3774.920047658624</v>
       </c>
       <c r="W41" t="n">
-        <v>2374.617736571424</v>
+        <v>3370.064593069657</v>
       </c>
       <c r="X41" t="n">
-        <v>2374.617736571424</v>
+        <v>3345.648678997083</v>
       </c>
       <c r="Y41" t="n">
-        <v>2374.617736571424</v>
+        <v>2937.362555296736</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>560.9164387240447</v>
+        <v>590.595522422112</v>
       </c>
       <c r="C42" t="n">
-        <v>454.459977560687</v>
+        <v>484.1390612587543</v>
       </c>
       <c r="D42" t="n">
-        <v>359.3696887072403</v>
+        <v>389.0487724053075</v>
       </c>
       <c r="E42" t="n">
-        <v>265.249274034194</v>
+        <v>294.9283577322612</v>
       </c>
       <c r="F42" t="n">
-        <v>181.8654356503556</v>
+        <v>211.5445193484229</v>
       </c>
       <c r="G42" t="n">
-        <v>96.48034591653948</v>
+        <v>126.1594296146068</v>
       </c>
       <c r="H42" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I42" t="n">
-        <v>80.80836689320955</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J42" t="n">
-        <v>405.3666918594219</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="K42" t="n">
-        <v>923.3460921744155</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="L42" t="n">
-        <v>923.3460921744155</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="M42" t="n">
-        <v>1600.811677117221</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="N42" t="n">
-        <v>1600.811677117221</v>
+        <v>270.0286557040146</v>
       </c>
       <c r="O42" t="n">
-        <v>1600.811677117221</v>
+        <v>270.0286557040146</v>
       </c>
       <c r="P42" t="n">
-        <v>1600.811677117221</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="Q42" t="n">
-        <v>1600.811677117221</v>
+        <v>1630.490760815288</v>
       </c>
       <c r="R42" t="n">
-        <v>1717.984455211561</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="S42" t="n">
-        <v>1654.529017659944</v>
+        <v>1684.208101358011</v>
       </c>
       <c r="T42" t="n">
-        <v>1524.350373990545</v>
+        <v>1554.029457688613</v>
       </c>
       <c r="U42" t="n">
-        <v>1348.013826990514</v>
+        <v>1377.692910688581</v>
       </c>
       <c r="V42" t="n">
-        <v>1148.896309052513</v>
+        <v>1178.57539275058</v>
       </c>
       <c r="W42" t="n">
-        <v>963.5735547857071</v>
+        <v>993.2526384837745</v>
       </c>
       <c r="X42" t="n">
-        <v>808.7061190245871</v>
+        <v>838.3852027226544</v>
       </c>
       <c r="Y42" t="n">
-        <v>682.2203398038079</v>
+        <v>711.8994235018752</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1133.802854344633</v>
+        <v>1163.481938042701</v>
       </c>
       <c r="C43" t="n">
-        <v>961.2411428278582</v>
+        <v>990.9202265259256</v>
       </c>
       <c r="D43" t="n">
-        <v>795.3631500293809</v>
+        <v>825.0422337274483</v>
       </c>
       <c r="E43" t="n">
-        <v>625.6051462801182</v>
+        <v>655.2842299781855</v>
       </c>
       <c r="F43" t="n">
-        <v>448.8980922418745</v>
+        <v>478.5771759399417</v>
       </c>
       <c r="G43" t="n">
-        <v>283.3068172677021</v>
+        <v>312.9859009657694</v>
       </c>
       <c r="H43" t="n">
-        <v>143.4046429580766</v>
+        <v>173.0837266561439</v>
       </c>
       <c r="I43" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J43" t="n">
-        <v>141.3243788974418</v>
+        <v>171.0034625955091</v>
       </c>
       <c r="K43" t="n">
-        <v>416.0828334685774</v>
+        <v>445.7619171666447</v>
       </c>
       <c r="L43" t="n">
-        <v>834.2927152365385</v>
+        <v>863.9717989346057</v>
       </c>
       <c r="M43" t="n">
-        <v>1293.776582417452</v>
+        <v>1323.455666115519</v>
       </c>
       <c r="N43" t="n">
-        <v>1736.035385575096</v>
+        <v>1765.714469273163</v>
       </c>
       <c r="O43" t="n">
-        <v>2155.704634800878</v>
+        <v>2185.383718498945</v>
       </c>
       <c r="P43" t="n">
-        <v>2503.211528771219</v>
+        <v>2532.890612469287</v>
       </c>
       <c r="Q43" t="n">
-        <v>2671.404303635552</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="R43" t="n">
-        <v>2649.986482340924</v>
+        <v>2679.665566038991</v>
       </c>
       <c r="S43" t="n">
-        <v>2490.74511363892</v>
+        <v>2679.665566038991</v>
       </c>
       <c r="T43" t="n">
-        <v>2244.865667217376</v>
+        <v>2665.52689540434</v>
       </c>
       <c r="U43" t="n">
-        <v>2070.459302829808</v>
+        <v>2387.093894657445</v>
       </c>
       <c r="V43" t="n">
-        <v>2070.459302829808</v>
+        <v>2100.138386527876</v>
       </c>
       <c r="W43" t="n">
-        <v>1798.4328984161</v>
+        <v>1828.111982114167</v>
       </c>
       <c r="X43" t="n">
-        <v>1553.041143749512</v>
+        <v>1582.72022744758</v>
       </c>
       <c r="Y43" t="n">
-        <v>1325.62147306362</v>
+        <v>1355.300556761688</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2192.253746556978</v>
+        <v>1720.698779469932</v>
       </c>
       <c r="C44" t="n">
-        <v>1754.111273740401</v>
+        <v>1282.556306653355</v>
       </c>
       <c r="D44" t="n">
-        <v>1318.201488914845</v>
+        <v>846.6465218277999</v>
       </c>
       <c r="E44" t="n">
-        <v>884.4267440731403</v>
+        <v>412.8717769860951</v>
       </c>
       <c r="F44" t="n">
-        <v>456.5593144823481</v>
+        <v>412.8717769860951</v>
       </c>
       <c r="G44" t="n">
-        <v>55.16148310561195</v>
+        <v>373.5539319876029</v>
       </c>
       <c r="H44" t="n">
-        <v>55.16148310561195</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I44" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J44" t="n">
-        <v>489.9993811856698</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="K44" t="n">
-        <v>1167.464966128475</v>
+        <v>652.3022337192184</v>
       </c>
       <c r="L44" t="n">
-        <v>1844.930551071281</v>
+        <v>652.3022337192184</v>
       </c>
       <c r="M44" t="n">
-        <v>2522.396136014086</v>
+        <v>652.3022337192184</v>
       </c>
       <c r="N44" t="n">
-        <v>2568.080621884541</v>
+        <v>1697.046479425606</v>
       </c>
       <c r="O44" t="n">
-        <v>2568.080621884541</v>
+        <v>2677.226145995912</v>
       </c>
       <c r="P44" t="n">
-        <v>2568.080621884541</v>
+        <v>3505.536020829309</v>
       </c>
       <c r="Q44" t="n">
-        <v>2568.080621884541</v>
+        <v>4052.034806787904</v>
       </c>
       <c r="R44" t="n">
-        <v>2737.234686637598</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="S44" t="n">
-        <v>2737.234686637598</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="T44" t="n">
-        <v>2737.234686637598</v>
+        <v>4001.121644413999</v>
       </c>
       <c r="U44" t="n">
-        <v>2737.234686637598</v>
+        <v>3741.899341731016</v>
       </c>
       <c r="V44" t="n">
-        <v>2737.234686637598</v>
+        <v>3379.282391664842</v>
       </c>
       <c r="W44" t="n">
-        <v>2737.234686637598</v>
+        <v>2974.426937075876</v>
       </c>
       <c r="X44" t="n">
-        <v>2737.234686637598</v>
+        <v>2555.284473655187</v>
       </c>
       <c r="Y44" t="n">
-        <v>2618.553317041885</v>
+        <v>2146.99834995484</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1580.166670150082</v>
+        <v>590.595522422112</v>
       </c>
       <c r="C45" t="n">
-        <v>1473.710208986724</v>
+        <v>484.1390612587543</v>
       </c>
       <c r="D45" t="n">
-        <v>1378.619920133277</v>
+        <v>389.0487724053075</v>
       </c>
       <c r="E45" t="n">
-        <v>1284.499505460231</v>
+        <v>294.9283577322612</v>
       </c>
       <c r="F45" t="n">
-        <v>1201.115667076393</v>
+        <v>211.5445193484229</v>
       </c>
       <c r="G45" t="n">
-        <v>1115.730577342577</v>
+        <v>126.1594296146068</v>
       </c>
       <c r="H45" t="n">
-        <v>1073.994925158789</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I45" t="n">
-        <v>1073.994925158789</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J45" t="n">
-        <v>1382.303516751987</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="K45" t="n">
-        <v>1382.303516751987</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="L45" t="n">
-        <v>1382.303516751987</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="M45" t="n">
-        <v>2059.769101694793</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="N45" t="n">
-        <v>2737.234686637598</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="O45" t="n">
-        <v>2737.234686637598</v>
+        <v>270.0286557040146</v>
       </c>
       <c r="P45" t="n">
-        <v>2737.234686637598</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="Q45" t="n">
-        <v>2737.234686637598</v>
+        <v>1630.490760815288</v>
       </c>
       <c r="R45" t="n">
-        <v>2737.234686637598</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="S45" t="n">
-        <v>2673.779249085981</v>
+        <v>1684.208101358011</v>
       </c>
       <c r="T45" t="n">
-        <v>2543.600605416583</v>
+        <v>1554.029457688613</v>
       </c>
       <c r="U45" t="n">
-        <v>2367.264058416551</v>
+        <v>1377.692910688581</v>
       </c>
       <c r="V45" t="n">
-        <v>2168.14654047855</v>
+        <v>1178.57539275058</v>
       </c>
       <c r="W45" t="n">
-        <v>1982.823786211744</v>
+        <v>993.2526384837745</v>
       </c>
       <c r="X45" t="n">
-        <v>1827.956350450624</v>
+        <v>838.3852027226544</v>
       </c>
       <c r="Y45" t="n">
-        <v>1701.470571229845</v>
+        <v>711.8994235018752</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1199.63323734668</v>
+        <v>934.9198145077505</v>
       </c>
       <c r="C46" t="n">
-        <v>1027.071525829905</v>
+        <v>762.3581029909755</v>
       </c>
       <c r="D46" t="n">
-        <v>861.1935330314275</v>
+        <v>596.4801101924982</v>
       </c>
       <c r="E46" t="n">
-        <v>691.4355292821647</v>
+        <v>426.7221064432354</v>
       </c>
       <c r="F46" t="n">
-        <v>514.7284752439209</v>
+        <v>250.0150524049915</v>
       </c>
       <c r="G46" t="n">
-        <v>349.1372002697486</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="H46" t="n">
-        <v>209.2350259601232</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I46" t="n">
-        <v>120.5750767347985</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J46" t="n">
-        <v>207.1547618994884</v>
+        <v>171.0034625955091</v>
       </c>
       <c r="K46" t="n">
-        <v>481.9132164706239</v>
+        <v>445.7619171666447</v>
       </c>
       <c r="L46" t="n">
-        <v>900.123098238585</v>
+        <v>863.9717989346057</v>
       </c>
       <c r="M46" t="n">
-        <v>1359.606965419498</v>
+        <v>1323.455666115519</v>
       </c>
       <c r="N46" t="n">
-        <v>1801.865768577142</v>
+        <v>1765.714469273163</v>
       </c>
       <c r="O46" t="n">
-        <v>2221.535017802924</v>
+        <v>2185.383718498945</v>
       </c>
       <c r="P46" t="n">
-        <v>2569.041911773266</v>
+        <v>2532.890612469287</v>
       </c>
       <c r="Q46" t="n">
-        <v>2737.234686637598</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="R46" t="n">
-        <v>2715.81686534297</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="S46" t="n">
-        <v>2715.81686534297</v>
+        <v>2682.844218290934</v>
       </c>
       <c r="T46" t="n">
-        <v>2469.937418921425</v>
+        <v>2436.96477186939</v>
       </c>
       <c r="U46" t="n">
-        <v>2191.50441817453</v>
+        <v>2158.531771122495</v>
       </c>
       <c r="V46" t="n">
-        <v>1904.548910044961</v>
+        <v>1871.576262992925</v>
       </c>
       <c r="W46" t="n">
-        <v>1632.522505631252</v>
+        <v>1599.549858579217</v>
       </c>
       <c r="X46" t="n">
-        <v>1618.871526751559</v>
+        <v>1354.158103912629</v>
       </c>
       <c r="Y46" t="n">
-        <v>1391.451856065667</v>
+        <v>1126.738433226738</v>
       </c>
     </row>
   </sheetData>
@@ -7988,13 +7990,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>618.0868407147311</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O2" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8067,13 +8069,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>331.1742018278667</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>684.3086716593995</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8216,28 +8218,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N5" t="n">
-        <v>618.0868407147311</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8304,13 +8306,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>331.1742018278667</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>684.3086716593995</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8459,22 +8461,22 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>104.6408607250861</v>
+        <v>573.6146023115144</v>
       </c>
       <c r="N8" t="n">
-        <v>684.3086716593995</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="O8" t="n">
-        <v>684.3086716593995</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8541,19 +8543,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>684.3086716593996</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>537.6417914809772</v>
       </c>
       <c r="Q9" t="n">
-        <v>311.4228197911089</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8693,19 +8695,19 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>573.6146023115144</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="N11" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>684.3086716593996</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>618.0868407147309</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8775,13 +8777,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>449.5305433373007</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8790,7 +8792,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8933,22 +8935,22 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>684.3086716593995</v>
+        <v>573.6146023115144</v>
       </c>
       <c r="N14" t="n">
-        <v>684.3086716593996</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="O14" t="n">
-        <v>684.3086716593994</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>104.640860725086</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9012,19 +9014,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>193.0664782816749</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>684.3086716593995</v>
+        <v>187.4796750234297</v>
       </c>
       <c r="O15" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9164,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>110.0804674982791</v>
+        <v>110.08046749828</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -9252,13 +9254,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9486,16 +9488,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9635,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>92.22506899525706</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
@@ -9653,13 +9655,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,16 +9725,16 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>433.7499898166684</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9875,13 +9877,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>288.7351832965059</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -9890,13 +9892,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>679.5583048465023</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9963,10 +9965,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>655.9981329904112</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -10112,13 +10114,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>459.5978749662599</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -10133,7 +10135,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10200,13 +10202,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="O30" t="n">
         <v>1024.042030119497</v>
       </c>
       <c r="P30" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10346,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10358,16 +10360,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>534.2310361852406</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10425,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>109.7971848772035</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10434,19 +10436,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O33" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10595,19 +10597,19 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>13.84524407969457</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,13 +10828,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10908,22 +10910,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,28 +11062,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>684.3086716593995</v>
+        <v>508.3978557094121</v>
       </c>
       <c r="L41" t="n">
-        <v>684.3086716593996</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>656.6598364408383</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,31 +11135,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>523.2115154696905</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>187.4796750234297</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>684.3086716593996</v>
+        <v>573.6146023115144</v>
       </c>
       <c r="L44" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>46.1459453236921</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11373,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>311.4228197911095</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11382,22 +11384,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>187.4796750234297</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23255,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>181.6532122922941</v>
       </c>
       <c r="G11" t="n">
-        <v>248.8793836357885</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>300.8795298668351</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>9.478295498009061</v>
       </c>
     </row>
     <row r="15">
@@ -23701,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -24133,13 +24135,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>48.19697732171672</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>229.4233680290252</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>69.71657238081424</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>135.0797604404447</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>84.63380825304883</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>160.7958207444044</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.0953302292553</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25597,10 +25599,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>34.67467827192252</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>105.285881417782</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -25688,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>390.7792838546335</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25834,16 +25836,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>229.4233680290251</v>
       </c>
       <c r="U43" t="n">
-        <v>102.9863699957339</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25874,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>358.4591865144615</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,22 +25918,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>286.7087065635877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>229.4233680290252</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>386301.2917049983</v>
+        <v>515229.3236648031</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>386301.2917049982</v>
+        <v>515229.3236648031</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>592714.7821545212</v>
+        <v>592714.7821545213</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>592714.7821545214</v>
+        <v>592714.7821545213</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>592714.7821545213</v>
+        <v>592714.7821545212</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>386301.2917049982</v>
+        <v>515229.3236648031</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>386301.2917049982</v>
+        <v>515229.3236648031</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>335092.0749315051</v>
+        <v>335092.0749315053</v>
       </c>
       <c r="C2" t="n">
         <v>335092.0749315052</v>
       </c>
       <c r="D2" t="n">
-        <v>335092.0749315051</v>
+        <v>335092.0749315052</v>
       </c>
       <c r="E2" t="n">
-        <v>214611.828724999</v>
+        <v>286238.5131471129</v>
       </c>
       <c r="F2" t="n">
-        <v>214611.8287249991</v>
+        <v>286238.5131471129</v>
       </c>
       <c r="G2" t="n">
-        <v>329285.990085845</v>
+        <v>329285.9900858451</v>
       </c>
       <c r="H2" t="n">
-        <v>329285.9900858452</v>
+        <v>329285.9900858451</v>
       </c>
       <c r="I2" t="n">
-        <v>329285.990085845</v>
+        <v>329285.9900858451</v>
       </c>
       <c r="J2" t="n">
         <v>329285.9900858451</v>
@@ -26347,13 +26349,13 @@
         <v>329285.9900858451</v>
       </c>
       <c r="N2" t="n">
-        <v>329285.9900858451</v>
+        <v>329285.9900858452</v>
       </c>
       <c r="O2" t="n">
-        <v>214611.8287249991</v>
+        <v>286238.5131471128</v>
       </c>
       <c r="P2" t="n">
-        <v>214611.8287249991</v>
+        <v>286238.5131471129</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229327.5749725129</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>120456.7261630936</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>162793.2877984415</v>
+        <v>61110.8921061319</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>179045.2580876519</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>98144.13701620419</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>110551.3788292105</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="C4" t="n">
-        <v>110551.3788292105</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="D4" t="n">
-        <v>110551.3788292105</v>
+        <v>45315.32809979644</v>
       </c>
       <c r="E4" t="n">
-        <v>525.526363575143</v>
+        <v>700.920754568994</v>
       </c>
       <c r="F4" t="n">
-        <v>525.526363575143</v>
+        <v>700.9207545689937</v>
       </c>
       <c r="G4" t="n">
         <v>806.3323907826023</v>
@@ -26436,7 +26438,7 @@
         <v>806.3323907826024</v>
       </c>
       <c r="I4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826021</v>
       </c>
       <c r="J4" t="n">
         <v>806.3323907826023</v>
@@ -26451,13 +26453,13 @@
         <v>806.3323907826023</v>
       </c>
       <c r="N4" t="n">
-        <v>806.3323907826025</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="O4" t="n">
-        <v>525.5263635751431</v>
+        <v>700.920754568994</v>
       </c>
       <c r="P4" t="n">
-        <v>525.5263635751431</v>
+        <v>700.920754568994</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>75233.56723689148</v>
+        <v>97789.67084742259</v>
       </c>
       <c r="E5" t="n">
-        <v>41605.96723689148</v>
+        <v>64162.0708474226</v>
       </c>
       <c r="F5" t="n">
-        <v>41605.96723689148</v>
+        <v>64162.0708474226</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>41605.96723689148</v>
+        <v>64162.0708474226</v>
       </c>
       <c r="P5" t="n">
-        <v>41605.96723689148</v>
+        <v>64162.0708474226</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-80020.44610710979</v>
+        <v>-76324.55443254788</v>
       </c>
       <c r="C6" t="n">
-        <v>149307.1288654032</v>
+        <v>147375.1441514969</v>
       </c>
       <c r="D6" t="n">
-        <v>149307.1288654031</v>
+        <v>71530.34982119262</v>
       </c>
       <c r="E6" t="n">
-        <v>172480.3351245324</v>
+        <v>221375.5215451213</v>
       </c>
       <c r="F6" t="n">
-        <v>172480.3351245325</v>
+        <v>221375.5215451213</v>
       </c>
       <c r="G6" t="n">
-        <v>87968.13129082843</v>
+        <v>189650.5269831381</v>
       </c>
       <c r="H6" t="n">
-        <v>250761.4190892701</v>
+        <v>250761.41908927</v>
       </c>
       <c r="I6" t="n">
-        <v>250761.4190892699</v>
+        <v>250761.41908927</v>
       </c>
       <c r="J6" t="n">
-        <v>71716.16100161808</v>
+        <v>76110.07037156387</v>
       </c>
       <c r="K6" t="n">
         <v>250761.4190892699</v>
       </c>
       <c r="L6" t="n">
+        <v>152617.2820730658</v>
+      </c>
+      <c r="M6" t="n">
         <v>250761.4190892699</v>
       </c>
-      <c r="M6" t="n">
-        <v>250761.41908927</v>
-      </c>
       <c r="N6" t="n">
-        <v>250761.4190892699</v>
+        <v>250761.4190892701</v>
       </c>
       <c r="O6" t="n">
-        <v>172480.3351245325</v>
+        <v>221375.5215451212</v>
       </c>
       <c r="P6" t="n">
-        <v>172480.3351245325</v>
+        <v>221375.5215451213</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>684.3086716593995</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="E4" t="n">
-        <v>684.3086716593995</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="F4" t="n">
-        <v>684.3086716593995</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>684.3086716593995</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="P4" t="n">
-        <v>684.3086716593995</v>
+        <v>1055.29721788524</v>
       </c>
     </row>
   </sheetData>
@@ -27009,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>387.7820112773832</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>593.9518317253459</v>
+        <v>222.9632854995052</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>387.7820112773832</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27255,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>387.7820112773832</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>593.9518317253459</v>
+        <v>222.9632854995052</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,16 +27381,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>120.2910310727118</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27433,16 +27435,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.8422500230731</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>111.4236523045827</v>
       </c>
       <c r="U4" t="n">
-        <v>122.4480280049964</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27613,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.6609514165587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>127.1542396129198</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27783,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>48.19697732171632</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>208.2197249473424</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>263.6609514165587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,16 +27912,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>307.9639287766319</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,13 +28019,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>54.48338453116324</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>44.07191583437704</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28059,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -30046,7 +30048,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30189,7 +30191,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>3.770613451100265e-12</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -30280,7 +30282,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30408,7 +30410,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>3.205021433435225e-12</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -33442,7 +33444,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -34708,13 +34710,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>618.0868407147311</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O2" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34787,13 +34789,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>331.1742018278667</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>684.3086716593995</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,13 +34865,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
@@ -34936,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N5" t="n">
-        <v>618.0868407147311</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35024,13 +35026,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>331.1742018278667</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>684.3086716593995</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35179,22 +35181,22 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>104.6408607250861</v>
+        <v>573.6146023115144</v>
       </c>
       <c r="N8" t="n">
-        <v>684.3086716593995</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="O8" t="n">
-        <v>684.3086716593995</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35261,19 +35263,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>684.3086716593996</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>537.6417914809772</v>
       </c>
       <c r="Q9" t="n">
-        <v>311.4228197911089</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35343,7 +35345,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35413,19 +35415,19 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>573.6146023115144</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="N11" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>684.3086716593996</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>618.0868407147309</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35495,13 +35497,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>449.5305433373007</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35510,7 +35512,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35653,22 +35655,22 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>684.3086716593995</v>
+        <v>573.6146023115144</v>
       </c>
       <c r="N14" t="n">
-        <v>684.3086716593996</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="O14" t="n">
-        <v>684.3086716593994</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>104.640860725086</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,19 +35734,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>193.0664782816749</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>684.3086716593995</v>
+        <v>187.4796750234297</v>
       </c>
       <c r="O15" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,7 +35886,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>110.0804674982791</v>
+        <v>110.08046749828</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35972,13 +35974,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36206,16 +36208,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36355,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>92.22506899525706</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
@@ -36373,13 +36375,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,16 +36445,16 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>433.7499898166684</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>288.7351832965059</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -36610,13 +36612,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>679.5583048465023</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36683,10 +36685,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>655.9981329904112</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>459.5978749662599</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -36853,7 +36855,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36920,13 +36922,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="O30" t="n">
         <v>1024.042030119497</v>
       </c>
       <c r="P30" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37066,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37078,16 +37080,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P32" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>534.2310361852406</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>109.7971848772035</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37154,19 +37156,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O33" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37315,19 +37317,19 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>13.84524407969457</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37546,13 +37548,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37628,22 +37630,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37704,7 +37706,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080447</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37780,28 +37782,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>684.3086716593995</v>
+        <v>508.3978557094121</v>
       </c>
       <c r="L41" t="n">
-        <v>684.3086716593996</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>656.6598364408383</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>523.2115154696905</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>187.4796750234297</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>684.3086716593996</v>
+        <v>573.6146023115144</v>
       </c>
       <c r="L44" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>46.1459453236921</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697544</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>311.4228197911095</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,22 +38104,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>187.4796750234297</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38181,7 +38183,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1326134.916328292</v>
+        <v>1325448.983551243</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>967451.7036114029</v>
+        <v>967451.7036114027</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
@@ -673,7 +673,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>73.78311634844674</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>45.10878876340928</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -834,10 +834,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>123.2901323038657</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>131.9969996527466</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>418.7069096796287</v>
       </c>
       <c r="C5" t="n">
-        <v>306.6068084754911</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -955,7 +955,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -1065,16 +1065,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>90.30617524481291</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1150,7 +1150,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>51.02685178887987</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>39.63638954350559</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
@@ -1299,16 +1299,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>119.8634463900536</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>90.30617524481268</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1375,22 +1375,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>241.9355430025903</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1429,7 +1429,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>8.493525733465512</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1545,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>153.2006427344284</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>388.0520524508891</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1627,7 +1627,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>394.724966965334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1782,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225751</v>
+        <v>54.66258501924847</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1824,7 +1824,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1861,7 +1861,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -2019,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>103.8284742946031</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2089,7 +2089,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2256,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>18.05677735226156</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6486707394217</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2304,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>13.51446909089648</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
-        <v>240.273786227905</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2952,10 +2952,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>35.75633396116267</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2970,7 +2970,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830417</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3195,7 +3195,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>28.46824604904392</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3204,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
@@ -3243,10 +3243,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>172.6623007436909</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3441,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3483,7 +3483,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>5.990622819018522</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3523,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3751,13 +3751,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -3793,19 +3793,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>245.3585899826981</v>
       </c>
       <c r="X41" t="n">
-        <v>24.1717549318489</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3918,7 +3918,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="T43" t="n">
-        <v>13.99728392830417</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3988,16 +3988,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>324.7508980805917</v>
       </c>
       <c r="G44" t="n">
-        <v>38.92466654850723</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022742</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1789.095648603258</v>
+        <v>2190.493479979994</v>
       </c>
       <c r="C2" t="n">
-        <v>1350.953175786681</v>
+        <v>1752.351007163417</v>
       </c>
       <c r="D2" t="n">
-        <v>915.0433909611256</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E2" t="n">
-        <v>481.2686461194208</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F2" t="n">
-        <v>53.40121652862856</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G2" t="n">
         <v>53.40121652862856</v>
@@ -4339,13 +4339,13 @@
         <v>53.40121652862856</v>
       </c>
       <c r="M2" t="n">
-        <v>53.40121652862856</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N2" t="n">
-        <v>714.2412710704069</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
-        <v>1375.081325612185</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P2" t="n">
         <v>1954.407975719776</v>
@@ -4363,19 +4363,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2670.060826431428</v>
+        <v>2595.532426079461</v>
       </c>
       <c r="V2" t="n">
-        <v>2670.060826431428</v>
+        <v>2232.915476013288</v>
       </c>
       <c r="W2" t="n">
-        <v>2669.245775882865</v>
+        <v>2232.100425464725</v>
       </c>
       <c r="X2" t="n">
-        <v>2623.681342788512</v>
+        <v>2216.99836608444</v>
       </c>
       <c r="Y2" t="n">
-        <v>2215.395219088166</v>
+        <v>2212.752646424497</v>
       </c>
     </row>
     <row r="3">
@@ -4406,25 +4406,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="K3" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="L3" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="M3" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="N3" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="O3" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
         <v>1058.729261281022</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1132.45937714051</v>
+        <v>1028.432740781182</v>
       </c>
       <c r="C4" t="n">
-        <v>959.897665623735</v>
+        <v>855.8710292644067</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>689.9930364659294</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>520.2350327166666</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>343.5279786784229</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>177.9367037042505</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I4" t="n">
         <v>53.40121652862856</v>
@@ -4518,22 +4518,22 @@
         <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2356.071333755254</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>2356.071333755254</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>2069.115825625685</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="W4" t="n">
-        <v>1797.089421211977</v>
+        <v>1693.062784852648</v>
       </c>
       <c r="X4" t="n">
-        <v>1551.697666545389</v>
+        <v>1447.671030186061</v>
       </c>
       <c r="Y4" t="n">
-        <v>1324.277995859497</v>
+        <v>1220.251359500169</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>448.5358106104095</v>
+        <v>172.9340324416416</v>
       </c>
       <c r="C5" t="n">
         <v>138.8319636654689</v>
@@ -4570,49 +4570,49 @@
         <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>141.0418768474983</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L5" t="n">
-        <v>801.8819313892766</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M5" t="n">
-        <v>1462.721985931055</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N5" t="n">
-        <v>2123.562040472833</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O5" t="n">
-        <v>2123.562040472833</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P5" t="n">
-        <v>2123.562040472833</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2366.341725488303</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>2107.11942280532</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>2107.11942280532</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W5" t="n">
-        <v>1702.263968216353</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X5" t="n">
-        <v>1283.121504795664</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y5" t="n">
-        <v>874.8353810953173</v>
+        <v>595.8703048453069</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="K6" t="n">
-        <v>53.40121652862856</v>
+        <v>740.3049442308645</v>
       </c>
       <c r="L6" t="n">
-        <v>53.40121652862856</v>
+        <v>740.3049442308645</v>
       </c>
       <c r="M6" t="n">
-        <v>53.40121652862856</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="N6" t="n">
-        <v>53.40121652862856</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="O6" t="n">
-        <v>397.8892067392439</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="P6" t="n">
-        <v>1058.729261281022</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q6" t="n">
         <v>1599.468199913098</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>741.4772326516127</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C7" t="n">
-        <v>568.9155211348376</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D7" t="n">
-        <v>403.0375283363603</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E7" t="n">
-        <v>233.2795245870976</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F7" t="n">
-        <v>233.2795245870976</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G7" t="n">
-        <v>233.2795245870976</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
         <v>53.40121652862856</v>
@@ -4749,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013252</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="U7" t="n">
-        <v>1965.089189266357</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V7" t="n">
-        <v>1678.133681136788</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W7" t="n">
-        <v>1406.107276723079</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X7" t="n">
-        <v>1160.715522056492</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y7" t="n">
-        <v>933.2958513705998</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2511.062984811828</v>
+        <v>2221.932830255045</v>
       </c>
       <c r="C8" t="n">
-        <v>2072.920511995252</v>
+        <v>1783.790357438468</v>
       </c>
       <c r="D8" t="n">
-        <v>1637.010727169696</v>
+        <v>1347.880572612912</v>
       </c>
       <c r="E8" t="n">
-        <v>1203.235982327991</v>
+        <v>914.1058277712076</v>
       </c>
       <c r="F8" t="n">
-        <v>775.368552737199</v>
+        <v>486.2383981804153</v>
       </c>
       <c r="G8" t="n">
-        <v>373.970721360463</v>
+        <v>84.84056680367921</v>
       </c>
       <c r="H8" t="n">
         <v>84.84056680367921</v>
@@ -4831,25 +4831,25 @@
         <v>4221.18887154096</v>
       </c>
       <c r="S8" t="n">
-        <v>4221.18887154096</v>
+        <v>4137.536997724797</v>
       </c>
       <c r="T8" t="n">
-        <v>4221.18887154096</v>
+        <v>4137.536997724797</v>
       </c>
       <c r="U8" t="n">
-        <v>4221.18887154096</v>
+        <v>3878.314695041814</v>
       </c>
       <c r="V8" t="n">
-        <v>4169.646597006738</v>
+        <v>3515.69774497564</v>
       </c>
       <c r="W8" t="n">
-        <v>3764.791142417772</v>
+        <v>3475.660987860988</v>
       </c>
       <c r="X8" t="n">
-        <v>3345.648678997083</v>
+        <v>3056.518524440299</v>
       </c>
       <c r="Y8" t="n">
-        <v>2937.362555296736</v>
+        <v>2648.232400739952</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>84.42377743081921</v>
       </c>
       <c r="I9" t="n">
-        <v>84.42377743081921</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="J9" t="n">
-        <v>84.42377743081921</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="K9" t="n">
-        <v>84.42377743081921</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="L9" t="n">
-        <v>84.42377743081921</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="M9" t="n">
-        <v>84.42377743081921</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="N9" t="n">
-        <v>84.42377743081921</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="O9" t="n">
-        <v>1098.225387249121</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="P9" t="n">
-        <v>1630.490760815288</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="Q9" t="n">
         <v>1630.490760815288</v>
@@ -4947,13 +4947,13 @@
         <v>434.0600892385507</v>
       </c>
       <c r="E10" t="n">
-        <v>434.0600892385507</v>
+        <v>264.302085489288</v>
       </c>
       <c r="F10" t="n">
-        <v>434.0600892385507</v>
+        <v>264.302085489288</v>
       </c>
       <c r="G10" t="n">
-        <v>312.9859009657694</v>
+        <v>264.302085489288</v>
       </c>
       <c r="H10" t="n">
         <v>173.0837266561439</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1637.046905653769</v>
+        <v>2074.736410613413</v>
       </c>
       <c r="C11" t="n">
-        <v>1198.904432837192</v>
+        <v>1636.593937796836</v>
       </c>
       <c r="D11" t="n">
-        <v>762.9946480116369</v>
+        <v>1636.593937796836</v>
       </c>
       <c r="E11" t="n">
-        <v>329.219903169932</v>
+        <v>1202.819192955131</v>
       </c>
       <c r="F11" t="n">
-        <v>84.84056680367921</v>
+        <v>774.9517633643391</v>
       </c>
       <c r="G11" t="n">
-        <v>84.84056680367921</v>
+        <v>373.5539319876029</v>
       </c>
       <c r="H11" t="n">
-        <v>84.84056680367921</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I11" t="n">
         <v>84.42377743081921</v>
@@ -5068,25 +5068,25 @@
         <v>4221.18887154096</v>
       </c>
       <c r="S11" t="n">
-        <v>4137.536997724797</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="T11" t="n">
-        <v>3917.469770597836</v>
+        <v>4001.121644413999</v>
       </c>
       <c r="U11" t="n">
-        <v>3658.247467914853</v>
+        <v>3741.899341731016</v>
       </c>
       <c r="V11" t="n">
-        <v>3295.630517848679</v>
+        <v>3733.320022808323</v>
       </c>
       <c r="W11" t="n">
-        <v>2890.775063259713</v>
+        <v>3328.464568219356</v>
       </c>
       <c r="X11" t="n">
-        <v>2471.632599839023</v>
+        <v>2909.322104798667</v>
       </c>
       <c r="Y11" t="n">
-        <v>2063.346476138677</v>
+        <v>2501.03598109832</v>
       </c>
     </row>
     <row r="12">
@@ -5117,22 +5117,22 @@
         <v>84.42377743081921</v>
       </c>
       <c r="I12" t="n">
-        <v>84.42377743081921</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="J12" t="n">
-        <v>84.42377743081921</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="K12" t="n">
-        <v>84.42377743081921</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="L12" t="n">
-        <v>84.42377743081921</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="M12" t="n">
-        <v>84.42377743081921</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="N12" t="n">
-        <v>84.42377743081921</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="O12" t="n">
         <v>1089.751822183213</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>934.9198145077505</v>
+        <v>1163.481938042701</v>
       </c>
       <c r="C13" t="n">
-        <v>762.3581029909755</v>
+        <v>990.9202265259256</v>
       </c>
       <c r="D13" t="n">
-        <v>596.4801101924982</v>
+        <v>825.0422337274483</v>
       </c>
       <c r="E13" t="n">
-        <v>426.7221064432354</v>
+        <v>655.2842299781855</v>
       </c>
       <c r="F13" t="n">
-        <v>250.0150524049915</v>
+        <v>478.5771759399417</v>
       </c>
       <c r="G13" t="n">
-        <v>84.42377743081921</v>
+        <v>312.9859009657694</v>
       </c>
       <c r="H13" t="n">
-        <v>84.42377743081921</v>
+        <v>173.0837266561439</v>
       </c>
       <c r="I13" t="n">
         <v>84.42377743081921</v>
@@ -5226,25 +5226,25 @@
         <v>2701.083387333619</v>
       </c>
       <c r="S13" t="n">
-        <v>2682.844218290934</v>
+        <v>2541.842018631615</v>
       </c>
       <c r="T13" t="n">
-        <v>2436.96477186939</v>
+        <v>2387.093894657445</v>
       </c>
       <c r="U13" t="n">
-        <v>2158.531771122495</v>
+        <v>2387.093894657445</v>
       </c>
       <c r="V13" t="n">
-        <v>1871.576262992925</v>
+        <v>2100.138386527876</v>
       </c>
       <c r="W13" t="n">
-        <v>1599.549858579217</v>
+        <v>1828.111982114167</v>
       </c>
       <c r="X13" t="n">
-        <v>1354.158103912629</v>
+        <v>1582.72022744758</v>
       </c>
       <c r="Y13" t="n">
-        <v>1126.738433226738</v>
+        <v>1355.300556761688</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2072.920511995252</v>
+        <v>2464.475492774805</v>
       </c>
       <c r="C14" t="n">
-        <v>2072.920511995252</v>
+        <v>2072.503722622392</v>
       </c>
       <c r="D14" t="n">
-        <v>1637.010727169696</v>
+        <v>1636.593937796836</v>
       </c>
       <c r="E14" t="n">
-        <v>1203.235982327991</v>
+        <v>1202.819192955131</v>
       </c>
       <c r="F14" t="n">
-        <v>775.368552737199</v>
+        <v>774.9517633643391</v>
       </c>
       <c r="G14" t="n">
-        <v>373.970721360463</v>
+        <v>373.5539319876029</v>
       </c>
       <c r="H14" t="n">
-        <v>84.84056680367921</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I14" t="n">
         <v>84.42377743081921</v>
@@ -5284,10 +5284,10 @@
         <v>84.42377743081921</v>
       </c>
       <c r="L14" t="n">
-        <v>84.42377743081921</v>
+        <v>1129.168023137207</v>
       </c>
       <c r="M14" t="n">
-        <v>652.3022337192184</v>
+        <v>1697.046479425606</v>
       </c>
       <c r="N14" t="n">
         <v>1697.046479425606</v>
@@ -5320,10 +5320,10 @@
         <v>2890.775063259713</v>
       </c>
       <c r="X14" t="n">
-        <v>2471.632599839023</v>
+        <v>2890.775063259713</v>
       </c>
       <c r="Y14" t="n">
-        <v>2072.920511995252</v>
+        <v>2890.775063259713</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>84.42377743081921</v>
       </c>
       <c r="I15" t="n">
-        <v>84.42377743081921</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="J15" t="n">
-        <v>84.42377743081921</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="K15" t="n">
-        <v>84.42377743081921</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="L15" t="n">
-        <v>84.42377743081921</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="M15" t="n">
-        <v>84.42377743081921</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="N15" t="n">
-        <v>270.0286557040146</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="O15" t="n">
-        <v>270.0286557040146</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="P15" t="n">
         <v>1089.751822183213</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>934.9198145077505</v>
+        <v>1163.481938042701</v>
       </c>
       <c r="C16" t="n">
-        <v>762.3581029909755</v>
+        <v>990.9202265259256</v>
       </c>
       <c r="D16" t="n">
-        <v>596.4801101924982</v>
+        <v>825.0422337274483</v>
       </c>
       <c r="E16" t="n">
-        <v>426.7221064432354</v>
+        <v>655.2842299781855</v>
       </c>
       <c r="F16" t="n">
-        <v>250.0150524049915</v>
+        <v>478.5771759399417</v>
       </c>
       <c r="G16" t="n">
-        <v>84.42377743081921</v>
+        <v>312.9859009657694</v>
       </c>
       <c r="H16" t="n">
-        <v>84.42377743081921</v>
+        <v>173.0837266561439</v>
       </c>
       <c r="I16" t="n">
         <v>84.42377743081921</v>
@@ -5460,28 +5460,28 @@
         <v>2701.083387333619</v>
       </c>
       <c r="R16" t="n">
-        <v>2701.083387333619</v>
+        <v>2679.665566038991</v>
       </c>
       <c r="S16" t="n">
-        <v>2682.844218290934</v>
+        <v>2624.450833696315</v>
       </c>
       <c r="T16" t="n">
-        <v>2436.96477186939</v>
+        <v>2378.571387274771</v>
       </c>
       <c r="U16" t="n">
-        <v>2158.531771122495</v>
+        <v>2100.138386527876</v>
       </c>
       <c r="V16" t="n">
-        <v>1871.576262992925</v>
+        <v>2100.138386527876</v>
       </c>
       <c r="W16" t="n">
-        <v>1599.549858579217</v>
+        <v>1828.111982114167</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.158103912629</v>
+        <v>1582.72022744758</v>
       </c>
       <c r="Y16" t="n">
-        <v>1126.738433226738</v>
+        <v>1355.300556761688</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5518,49 +5518,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>211.2405030940769</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L17" t="n">
-        <v>1286.300469346936</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M17" t="n">
-        <v>2443.348304557487</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N17" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5591,19 +5591,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
         <v>1107.588885023173</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>1057.634124109936</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>885.0724125931612</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>719.1944197946839</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>549.4364160454211</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>372.7293620071773</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>207.138087033005</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5700,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1994.290572595111</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1722.264168181403</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1476.872413514815</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1249.452742828923</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
         <v>1221.073045167952</v>
@@ -5779,25 +5779,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130891</v>
       </c>
       <c r="T22" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.801834709346</v>
       </c>
       <c r="U22" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1614.208269167233</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5977,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5995,22 +5995,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>1177.320806523639</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M23" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6028,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>3449.802252060173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>3449.802252060173</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K24" t="n">
-        <v>3449.802252060173</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>3449.802252060173</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>3879.214741978675</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>5113.042013538981</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>5113.042013538981</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>5113.042013538981</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>5113.042013538981</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S24" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T24" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U24" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V24" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W24" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6171,10 +6171,10 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
         <v>2454.80183470935</v>
@@ -6214,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6229,10 +6229,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>388.1086717343205</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L26" t="n">
-        <v>1463.16863798718</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M26" t="n">
         <v>1463.16863798718</v>
@@ -6265,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6502,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>754.2193473420839</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6648,25 +6648,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M32" t="n">
-        <v>3603.973621145286</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>4584.153287715592</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4584.153287715592</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6739,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2117.975449367836</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W34" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="35">
@@ -6925,40 +6925,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N35" t="n">
-        <v>3572.656769371182</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O35" t="n">
-        <v>4552.836435941488</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580386</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7013,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L38" t="n">
-        <v>1371.865819681875</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M38" t="n">
-        <v>2528.913654892426</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7359,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2594.704009018975</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2316.271008272081</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2511.062984811828</v>
+        <v>1794.065400664252</v>
       </c>
       <c r="C41" t="n">
-        <v>2072.920511995252</v>
+        <v>1355.922927847676</v>
       </c>
       <c r="D41" t="n">
-        <v>1637.010727169696</v>
+        <v>920.0131430221202</v>
       </c>
       <c r="E41" t="n">
-        <v>1203.235982327991</v>
+        <v>486.2383981804153</v>
       </c>
       <c r="F41" t="n">
-        <v>775.368552737199</v>
+        <v>486.2383981804153</v>
       </c>
       <c r="G41" t="n">
-        <v>373.970721360463</v>
+        <v>84.84056680367921</v>
       </c>
       <c r="H41" t="n">
         <v>84.84056680367921</v>
@@ -7414,16 +7414,16 @@
         <v>84.42377743081921</v>
       </c>
       <c r="K41" t="n">
-        <v>587.7376545831371</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="L41" t="n">
-        <v>1632.481900289525</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="M41" t="n">
-        <v>1632.481900289525</v>
+        <v>652.3022337192184</v>
       </c>
       <c r="N41" t="n">
-        <v>2677.226145995912</v>
+        <v>1697.046479425606</v>
       </c>
       <c r="O41" t="n">
         <v>2677.226145995912</v>
@@ -7441,22 +7441,22 @@
         <v>4137.536997724797</v>
       </c>
       <c r="T41" t="n">
-        <v>4137.536997724797</v>
+        <v>3917.469770597836</v>
       </c>
       <c r="U41" t="n">
-        <v>4137.536997724797</v>
+        <v>3658.247467914853</v>
       </c>
       <c r="V41" t="n">
-        <v>3774.920047658624</v>
+        <v>3295.630517848679</v>
       </c>
       <c r="W41" t="n">
-        <v>3370.064593069657</v>
+        <v>3047.793558270196</v>
       </c>
       <c r="X41" t="n">
-        <v>3345.648678997083</v>
+        <v>2628.651094849507</v>
       </c>
       <c r="Y41" t="n">
-        <v>2937.362555296736</v>
+        <v>2220.36497114916</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>84.42377743081921</v>
       </c>
       <c r="I42" t="n">
-        <v>84.42377743081921</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="J42" t="n">
-        <v>84.42377743081921</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="K42" t="n">
-        <v>84.42377743081921</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="L42" t="n">
-        <v>84.42377743081921</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="M42" t="n">
-        <v>84.42377743081921</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="N42" t="n">
-        <v>270.0286557040146</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="O42" t="n">
-        <v>270.0286557040146</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="P42" t="n">
         <v>1089.751822183213</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1163.481938042701</v>
+        <v>1074.821988817376</v>
       </c>
       <c r="C43" t="n">
-        <v>990.9202265259256</v>
+        <v>902.2602773006009</v>
       </c>
       <c r="D43" t="n">
-        <v>825.0422337274483</v>
+        <v>736.3822845021236</v>
       </c>
       <c r="E43" t="n">
-        <v>655.2842299781855</v>
+        <v>566.6242807528608</v>
       </c>
       <c r="F43" t="n">
-        <v>478.5771759399417</v>
+        <v>389.917226714617</v>
       </c>
       <c r="G43" t="n">
-        <v>312.9859009657694</v>
+        <v>224.3259517404447</v>
       </c>
       <c r="H43" t="n">
-        <v>173.0837266561439</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I43" t="n">
         <v>84.42377743081921</v>
@@ -7593,28 +7593,28 @@
         <v>2701.083387333619</v>
       </c>
       <c r="R43" t="n">
-        <v>2679.665566038991</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="S43" t="n">
-        <v>2679.665566038991</v>
+        <v>2576.866946179015</v>
       </c>
       <c r="T43" t="n">
-        <v>2665.52689540434</v>
+        <v>2576.866946179015</v>
       </c>
       <c r="U43" t="n">
-        <v>2387.093894657445</v>
+        <v>2298.43394543212</v>
       </c>
       <c r="V43" t="n">
-        <v>2100.138386527876</v>
+        <v>2011.478437302551</v>
       </c>
       <c r="W43" t="n">
-        <v>1828.111982114167</v>
+        <v>1739.452032888842</v>
       </c>
       <c r="X43" t="n">
-        <v>1582.72022744758</v>
+        <v>1494.060278222255</v>
       </c>
       <c r="Y43" t="n">
-        <v>1355.300556761688</v>
+        <v>1266.640607536363</v>
       </c>
     </row>
     <row r="44">
@@ -7636,13 +7636,13 @@
         <v>412.8717769860951</v>
       </c>
       <c r="F44" t="n">
-        <v>412.8717769860951</v>
+        <v>84.84056680367921</v>
       </c>
       <c r="G44" t="n">
-        <v>373.5539319876029</v>
+        <v>84.84056680367921</v>
       </c>
       <c r="H44" t="n">
-        <v>84.42377743081921</v>
+        <v>84.84056680367921</v>
       </c>
       <c r="I44" t="n">
         <v>84.42377743081921</v>
@@ -7651,13 +7651,13 @@
         <v>84.42377743081921</v>
       </c>
       <c r="K44" t="n">
-        <v>652.3022337192184</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="L44" t="n">
-        <v>652.3022337192184</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="M44" t="n">
-        <v>652.3022337192184</v>
+        <v>1129.168023137207</v>
       </c>
       <c r="N44" t="n">
         <v>1697.046479425606</v>
@@ -7724,22 +7724,22 @@
         <v>84.42377743081921</v>
       </c>
       <c r="I45" t="n">
-        <v>84.42377743081921</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="J45" t="n">
-        <v>84.42377743081921</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="K45" t="n">
-        <v>84.42377743081921</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="L45" t="n">
-        <v>84.42377743081921</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="M45" t="n">
-        <v>84.42377743081921</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="N45" t="n">
-        <v>84.42377743081921</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="O45" t="n">
         <v>270.0286557040146</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>934.9198145077505</v>
+        <v>772.4997935538031</v>
       </c>
       <c r="C46" t="n">
-        <v>762.3581029909755</v>
+        <v>599.938082037028</v>
       </c>
       <c r="D46" t="n">
-        <v>596.4801101924982</v>
+        <v>434.0600892385507</v>
       </c>
       <c r="E46" t="n">
-        <v>426.7221064432354</v>
+        <v>264.302085489288</v>
       </c>
       <c r="F46" t="n">
-        <v>250.0150524049915</v>
+        <v>87.59503145104421</v>
       </c>
       <c r="G46" t="n">
         <v>84.42377743081921</v>
@@ -7830,28 +7830,28 @@
         <v>2701.083387333619</v>
       </c>
       <c r="R46" t="n">
-        <v>2701.083387333619</v>
+        <v>2679.665566038991</v>
       </c>
       <c r="S46" t="n">
-        <v>2682.844218290934</v>
+        <v>2520.424197336987</v>
       </c>
       <c r="T46" t="n">
-        <v>2436.96477186939</v>
+        <v>2274.544750915442</v>
       </c>
       <c r="U46" t="n">
-        <v>2158.531771122495</v>
+        <v>1996.111750168548</v>
       </c>
       <c r="V46" t="n">
-        <v>1871.576262992925</v>
+        <v>1709.156242038978</v>
       </c>
       <c r="W46" t="n">
-        <v>1599.549858579217</v>
+        <v>1437.12983762527</v>
       </c>
       <c r="X46" t="n">
-        <v>1354.158103912629</v>
+        <v>1191.738082958682</v>
       </c>
       <c r="Y46" t="n">
-        <v>1126.738433226738</v>
+        <v>964.3184122727903</v>
       </c>
     </row>
   </sheetData>
@@ -7987,16 +7987,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="N2" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078568</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>585.1784344521125</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8063,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>347.9676668794094</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8218,28 +8218,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>88.52591951400984</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,31 +8291,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>200.3264657984394</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O6" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>537.6417914809772</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8932,13 +8932,13 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="M14" t="n">
-        <v>573.6146023115144</v>
+        <v>573.6146023115143</v>
       </c>
       <c r="N14" t="n">
-        <v>1055.29721788524</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9017,13 +9017,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9166,10 +9166,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>110.08046749828</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -9178,7 +9178,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -9655,13 +9655,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166684</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,13 +9877,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>288.7351832965059</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>534.2310361852406</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>922.699389992646</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -10603,13 +10603,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>13.84524407969457</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10834,7 +10834,7 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>60.59188538505214</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10916,10 +10916,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11062,19 +11062,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>508.3978557094121</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1055.29721788524</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>573.6146023115144</v>
       </c>
       <c r="N41" t="n">
         <v>1055.29721788524</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,13 +11150,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11299,16 +11299,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>573.6146023115144</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="N44" t="n">
-        <v>1055.29721788524</v>
+        <v>573.6146023115143</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234297</v>
+        <v>161.1527324371089</v>
       </c>
       <c r="P45" t="n">
         <v>828.0031984638366</v>
@@ -23263,22 +23263,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>181.6532122922941</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>350.4972548320462</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>90.2200092229009</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>45.70899563752187</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.478295498009061</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627258</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>34.67467827192613</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23940,10 +23940,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627218</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>229.4233680290252</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
-        <v>3.146865729424235</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>69.71657238081424</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>135.0797604404447</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>229.4233680290251</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>102.9863699957348</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.0953302292553</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25599,10 +25599,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25639,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>155.4483100603789</v>
       </c>
       <c r="X41" t="n">
-        <v>390.7792838546335</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>34.67467827192567</v>
       </c>
       <c r="T43" t="n">
-        <v>229.4233680290251</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25876,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>98.83785721429263</v>
       </c>
       <c r="G44" t="n">
-        <v>358.4591865144615</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>160.7958207444079</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>592714.7821545213</v>
+        <v>592714.7821545212</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>592714.7821545213</v>
+        <v>592714.7821545214</v>
       </c>
     </row>
     <row r="9">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>592714.7821545212</v>
+        <v>592714.7821545213</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>515229.3236648031</v>
+        <v>515229.323664803</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>335092.0749315053</v>
+        <v>335092.0749315052</v>
       </c>
       <c r="C2" t="n">
         <v>335092.0749315052</v>
@@ -26325,10 +26325,10 @@
         <v>286238.5131471129</v>
       </c>
       <c r="F2" t="n">
-        <v>286238.5131471129</v>
+        <v>286238.5131471128</v>
       </c>
       <c r="G2" t="n">
-        <v>329285.9900858451</v>
+        <v>329285.990085845</v>
       </c>
       <c r="H2" t="n">
         <v>329285.9900858451</v>
@@ -26343,13 +26343,13 @@
         <v>329285.9900858451</v>
       </c>
       <c r="L2" t="n">
-        <v>329285.9900858451</v>
+        <v>329285.990085845</v>
       </c>
       <c r="M2" t="n">
         <v>329285.9900858451</v>
       </c>
       <c r="N2" t="n">
-        <v>329285.9900858452</v>
+        <v>329285.9900858451</v>
       </c>
       <c r="O2" t="n">
         <v>286238.5131471128</v>
@@ -26423,22 +26423,22 @@
         <v>113504.4062182506</v>
       </c>
       <c r="D4" t="n">
-        <v>45315.32809979644</v>
+        <v>45315.32809979648</v>
       </c>
       <c r="E4" t="n">
-        <v>700.920754568994</v>
+        <v>700.9207545689939</v>
       </c>
       <c r="F4" t="n">
-        <v>700.9207545689937</v>
+        <v>700.9207545689939</v>
       </c>
       <c r="G4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="H4" t="n">
-        <v>806.3323907826024</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="I4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="J4" t="n">
         <v>806.3323907826023</v>
@@ -26453,13 +26453,13 @@
         <v>806.3323907826023</v>
       </c>
       <c r="N4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826021</v>
       </c>
       <c r="O4" t="n">
-        <v>700.920754568994</v>
+        <v>700.9207545689939</v>
       </c>
       <c r="P4" t="n">
-        <v>700.920754568994</v>
+        <v>700.9207545689939</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-76324.55443254788</v>
+        <v>-76324.55443254797</v>
       </c>
       <c r="C6" t="n">
         <v>147375.1441514969</v>
       </c>
       <c r="D6" t="n">
-        <v>71530.34982119262</v>
+        <v>71530.34982119259</v>
       </c>
       <c r="E6" t="n">
-        <v>221375.5215451213</v>
+        <v>221180.1072979837</v>
       </c>
       <c r="F6" t="n">
-        <v>221375.5215451213</v>
+        <v>221180.1072979836</v>
       </c>
       <c r="G6" t="n">
-        <v>189650.5269831381</v>
+        <v>189627.3026437554</v>
       </c>
       <c r="H6" t="n">
-        <v>250761.41908927</v>
+        <v>250738.1947498873</v>
       </c>
       <c r="I6" t="n">
-        <v>250761.41908927</v>
+        <v>250738.1947498873</v>
       </c>
       <c r="J6" t="n">
-        <v>76110.07037156387</v>
+        <v>76086.84603218117</v>
       </c>
       <c r="K6" t="n">
-        <v>250761.4190892699</v>
+        <v>250738.1947498873</v>
       </c>
       <c r="L6" t="n">
-        <v>152617.2820730658</v>
+        <v>152594.0577336831</v>
       </c>
       <c r="M6" t="n">
-        <v>250761.4190892699</v>
+        <v>250738.1947498873</v>
       </c>
       <c r="N6" t="n">
-        <v>250761.4190892701</v>
+        <v>250738.1947498873</v>
       </c>
       <c r="O6" t="n">
-        <v>221375.5215451212</v>
+        <v>221180.1072979836</v>
       </c>
       <c r="P6" t="n">
-        <v>221375.5215451213</v>
+        <v>221180.1072979837</v>
       </c>
     </row>
   </sheetData>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27435,19 +27435,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>182.8469633077065</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>369.8422500230731</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>15.21302026266349</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,13 +27590,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>111.4236523045827</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>3.32966510043002</v>
       </c>
       <c r="C5" t="n">
-        <v>127.1542396129198</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>48.19697732171632</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>307.9639287766319</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>361.1705104995714</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28019,16 +28019,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>44.07191583437704</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>48.19697732171655</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28809,7 +28809,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29015,7 +29015,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>3.959144123655279e-12</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34707,16 +34707,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="N2" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078568</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>585.1784344521125</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34774,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -34783,7 +34783,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34792,10 +34792,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>347.9676668794094</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34938,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>88.52591951400984</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>200.3264657984394</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O6" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35248,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35266,13 +35266,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>537.6417914809772</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35503,7 +35503,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35652,13 +35652,13 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="M14" t="n">
-        <v>573.6146023115144</v>
+        <v>573.6146023115143</v>
       </c>
       <c r="N14" t="n">
-        <v>1055.29721788524</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35737,13 +35737,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35886,10 +35886,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>110.08046749828</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -35898,7 +35898,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35974,7 +35974,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36214,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36363,7 +36363,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -36375,13 +36375,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166684</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>288.7351832965059</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,19 +36685,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36922,19 +36922,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>534.2310361852406</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37168,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>922.699389992646</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -37323,10 +37323,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>13.84524407969457</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>60.59188538505214</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37636,10 +37636,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37782,19 +37782,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>508.3978557094121</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1055.29721788524</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>573.6146023115144</v>
       </c>
       <c r="N41" t="n">
         <v>1055.29721788524</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458551</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37870,13 +37870,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -38019,16 +38019,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>573.6146023115144</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="N44" t="n">
-        <v>1055.29721788524</v>
+        <v>573.6146023115143</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38110,7 +38110,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234297</v>
+        <v>161.1527324371089</v>
       </c>
       <c r="P45" t="n">
         <v>828.0031984638366</v>
